--- a/DB_Scheme.xlsx
+++ b/DB_Scheme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koesnam/Desktop/myApps/3DPrintingPlatform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E0375E-96CD-4140-BD51-263D50448FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCF8F72-523A-944F-8481-3BE5212BB032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{8863869B-68AD-5A41-8A35-1A81322B5D17}"/>
   </bookViews>
@@ -541,7 +541,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,13 +581,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -904,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B86B513-BC45-2847-8AF9-D2CE8E39BB24}">
-  <dimension ref="B5:G29"/>
+  <dimension ref="B5:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -982,51 +976,60 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" ht="19" thickBot="1">
       <c r="C13" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" ht="19" thickBot="1">
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="20" thickTop="1" thickBot="1">
       <c r="C14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="20" thickTop="1" thickBot="1">
+      <c r="E14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="19" thickTop="1">
       <c r="C15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="19" thickTop="1">
+      <c r="E15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
       <c r="C16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>72</v>
+      <c r="E16" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="3:7">
@@ -1034,13 +1037,13 @@
         <v>37</v>
       </c>
       <c r="E17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="18" spans="3:7">
@@ -1048,13 +1051,13 @@
         <v>38</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="3:7">
@@ -1062,90 +1065,77 @@
         <v>39</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="19" thickBot="1">
       <c r="C20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>76</v>
-      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="10" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="19" thickTop="1">
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
+        <v>81</v>
+      </c>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="3:7" ht="19" thickBot="1">
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="3:7">
+    <row r="23" spans="3:7" ht="20" thickTop="1" thickBot="1">
+      <c r="C23" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="3:7" ht="19" thickBot="1">
-      <c r="C24" t="s">
-        <v>93</v>
+    <row r="24" spans="3:7" ht="19" thickTop="1">
+      <c r="C24" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="3:7" ht="20" thickTop="1" thickBot="1">
-      <c r="C25" s="8" t="s">
-        <v>92</v>
+    <row r="25" spans="3:7">
+      <c r="C25" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
     </row>
-    <row r="26" spans="3:7" ht="19" thickTop="1">
-      <c r="C26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="3:7" ht="19" thickBot="1">
-      <c r="C27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="3:7" ht="20" thickTop="1" thickBot="1">
-      <c r="C28" s="11"/>
-    </row>
-    <row r="29" spans="3:7" ht="19" thickTop="1"/>
+    <row r="26" spans="3:7" ht="19" thickBot="1">
+      <c r="C26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="3:7" ht="19" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1478,7 +1468,7 @@
       <c r="G22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="13" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1492,7 +1482,7 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="19" thickBot="1">
-      <c r="C24" s="15" t="s">
+      <c r="C24" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="11"/>
@@ -1507,7 +1497,7 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="19" thickTop="1">
-      <c r="C25" s="15" t="s">
+      <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="G25" t="s">
@@ -1524,7 +1514,7 @@
       </c>
     </row>
     <row r="26" spans="2:14">
-      <c r="C26" s="15" t="s">
+      <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="G26" t="s">
@@ -1541,7 +1531,7 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="19" thickBot="1">
-      <c r="C27" s="15" t="s">
+      <c r="C27" t="s">
         <v>31</v>
       </c>
       <c r="G27" s="7" t="s">
@@ -1564,7 +1554,7 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="19" thickTop="1">
-      <c r="C28" s="15" t="s">
+      <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28">
@@ -1593,7 +1583,7 @@
       </c>
     </row>
     <row r="29" spans="2:14">
-      <c r="C29" s="15" t="s">
+      <c r="C29" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="4" t="s">
@@ -1619,7 +1609,7 @@
       </c>
     </row>
     <row r="30" spans="2:14">
-      <c r="C30" s="15" t="s">
+      <c r="C30" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="4" t="s">

--- a/DB_Scheme.xlsx
+++ b/DB_Scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koesnam/Desktop/myApps/3DPrintingPlatform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCF8F72-523A-944F-8481-3BE5212BB032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C568180-120B-FC40-B90F-3E8BA1623314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" xr2:uid="{8863869B-68AD-5A41-8A35-1A81322B5D17}"/>
+    <workbookView xWindow="19500" yWindow="740" windowWidth="10740" windowHeight="18900" xr2:uid="{8863869B-68AD-5A41-8A35-1A81322B5D17}"/>
   </bookViews>
   <sheets>
     <sheet name="정리본" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="96">
   <si>
     <t>구매자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -411,6 +411,14 @@
   </si>
   <si>
     <t>판매자&lt;-&gt;제조장비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적ID : uuid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰ID : uuid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -900,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B86B513-BC45-2847-8AF9-D2CE8E39BB24}">
   <dimension ref="B5:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1015,7 +1023,7 @@
         <v>77</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -1026,7 +1034,7 @@
         <v>73</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>84</v>
@@ -1043,7 +1051,7 @@
         <v>78</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="3:7">

--- a/DB_Scheme.xlsx
+++ b/DB_Scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koesnam/Desktop/myApps/3DPrintingPlatform/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C568180-120B-FC40-B90F-3E8BA1623314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C683E51A-D870-9244-B115-AA8F82CEC713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19500" yWindow="740" windowWidth="10740" windowHeight="18900" xr2:uid="{8863869B-68AD-5A41-8A35-1A81322B5D17}"/>
+    <workbookView xWindow="24700" yWindow="0" windowWidth="13700" windowHeight="21600" xr2:uid="{8863869B-68AD-5A41-8A35-1A81322B5D17}"/>
   </bookViews>
   <sheets>
     <sheet name="정리본" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="97">
   <si>
     <t>구매자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -419,6 +419,10 @@
   </si>
   <si>
     <t>입찰ID : uuid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래ID : uuid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -908,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B86B513-BC45-2847-8AF9-D2CE8E39BB24}">
   <dimension ref="B5:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1017,7 +1021,7 @@
         <v>33</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>77</v>
@@ -1031,7 +1035,7 @@
         <v>34</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>94</v>
@@ -1045,7 +1049,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>78</v>
